--- a/file/criterion-template-short.xlsx
+++ b/file/criterion-template-short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chihy\Dropbox\Ongoing - Dropbox\app-AHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B8D26E7-2AF1-475A-95D0-D5964B33EF93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E71BA78-244F-420E-B284-B15558C564F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="10238" xr2:uid="{37971D20-4150-4350-954F-912B86F59D3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Options</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Pear Company</t>
+  </si>
+  <si>
+    <t>Level-1</t>
+  </si>
+  <si>
+    <t>Level-2</t>
+  </si>
+  <si>
+    <t>Level-3</t>
   </si>
 </sst>
 </file>
@@ -410,60 +419,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7E53A6-C034-4709-831A-BA74DB0D8F78}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.53125" customWidth="1"/>
-    <col min="2" max="4" width="16.53125" customWidth="1"/>
+    <col min="2" max="2" width="5.06640625" customWidth="1"/>
+    <col min="3" max="5" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/file/criterion-template-short.xlsx
+++ b/file/criterion-template-short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chihy\Dropbox\Ongoing - Dropbox\app-AHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E71BA78-244F-420E-B284-B15558C564F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A16221A6-8257-43F0-B781-4CC1E49F3B27}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="10238" xr2:uid="{37971D20-4150-4350-954F-912B86F59D3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Options</t>
   </si>
@@ -60,13 +60,10 @@
     <t>Pear Company</t>
   </si>
   <si>
-    <t>Level-1</t>
-  </si>
-  <si>
-    <t>Level-2</t>
-  </si>
-  <si>
-    <t>Level-3</t>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Hello World</t>
   </si>
 </sst>
 </file>
@@ -419,72 +416,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7E53A6-C034-4709-831A-BA74DB0D8F78}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.53125" customWidth="1"/>
-    <col min="2" max="2" width="5.06640625" customWidth="1"/>
-    <col min="3" max="5" width="16.53125" customWidth="1"/>
+    <col min="2" max="4" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
